--- a/ConsoleApp1/Sample/5-mst_file.xlsx
+++ b/ConsoleApp1/Sample/5-mst_file.xlsx
@@ -25,24 +25,24 @@
     <x:t>Line Matches</x:t>
   </x:si>
   <x:si>
+    <x:t>https://example.com/file5/(98%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file6/(90%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file3/(71%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file4/(50%)</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://example.com/file1/(55%)</x:t>
   </x:si>
   <x:si>
     <x:t>https://example.com/file2/(58%)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file3/(71%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file4/(50%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file5/(98%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file6/(90%)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://example.com/file11/(50%)</x:t>
   </x:si>
   <x:si>
@@ -55,16 +55,16 @@
     <x:t>https://example.com/file8/(52%)</x:t>
   </x:si>
   <x:si>
+    <x:t>https://example.com/file10/(32%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file11/(59%)</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://example.com/file9/(62%)</x:t>
   </x:si>
   <x:si>
     <x:t>https://example.com/file10/(24%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file10/(32%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file11/(59%)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -459,7 +459,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -481,7 +481,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -514,7 +514,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -525,7 +525,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -792,9 +792,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C5C143C-DDC1-42D0-A8E7-95E1CE7FDEE2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CACDA822-C97B-48B7-86AA-F22DDC04884D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD76545-6CCA-48A0-8D83-B5738E8BDC24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1519BD20-1107-487A-9932-E4D07428AB49}"/>
 </file>